--- a/Salidas/Salida_despliegue/resultados.xlsx
+++ b/Salidas/Salida_despliegue/resultados.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2796632051467896</v>
+        <v>0.4297530949115753</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7459093928337097</v>
+        <v>0.918637216091156</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003718456719070673</v>
+        <v>0.001757095218636096</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2337192445993423</v>
+        <v>0.3683327436447144</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9311067461967468</v>
+        <v>0.9950888156890869</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01328922808170319</v>
+        <v>0.004335793200880289</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01108437031507492</v>
+        <v>0.003057815134525299</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.363753080368042</v>
+        <v>0.5260633230209351</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.008476083166897297</v>
+        <v>0.005933526437729597</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4969478845596313</v>
+        <v>0.4772283434867859</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8019217848777771</v>
+        <v>0.9317646622657776</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.327880471944809</v>
+        <v>0.731816828250885</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1694777458906174</v>
+        <v>0.4872339069843292</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4439929127693176</v>
+        <v>0.8573092222213745</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.004988845437765121</v>
+        <v>0.00239962269552052</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7948347926139832</v>
+        <v>0.9508775472640991</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.003933340311050415</v>
+        <v>0.001188501832075417</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7591249346733093</v>
+        <v>0.9436594247817993</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.004853334743529558</v>
+        <v>0.002105159452185035</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0102939335629344</v>
+        <v>0.0167453158646822</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0494479201734066</v>
+        <v>0.04859062284231186</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +773,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6640565395355225</v>
+        <v>0.9730495810508728</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.009153866209089756</v>
+        <v>0.003636320354416966</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6857197880744934</v>
+        <v>0.9335485100746155</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.015138347633183</v>
+        <v>0.007512656971812248</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9633567333221436</v>
+        <v>0.9914988875389099</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5174121260643005</v>
+        <v>0.6839154362678528</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7912708520889282</v>
+        <v>0.727957010269165</v>
       </c>
     </row>
     <row r="30">
@@ -878,11 +878,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8429043292999268</v>
+        <v>0.9964113831520081</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01323328912258148</v>
+        <v>0.006283543538302183</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.009458731859922409</v>
+        <v>0.01001961249858141</v>
       </c>
     </row>
     <row r="33">
@@ -923,11 +923,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>No_identificado</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.06215852126479149</v>
+        <v>0.1386386901140213</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.742842972278595</v>
+        <v>0.9317166209220886</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7397392392158508</v>
+        <v>0.9144992232322693</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.3963338434696198</v>
+        <v>0.4084204435348511</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4353635311126709</v>
+        <v>0.7296815514564514</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.5207603573799133</v>
+        <v>0.8368743658065796</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.8837103843688965</v>
+        <v>0.9457045197486877</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.399954229593277</v>
+        <v>0.6353344917297363</v>
       </c>
     </row>
     <row r="41">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.9495005011558533</v>
+        <v>0.9888065457344055</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.3527171313762665</v>
+        <v>0.5321563482284546</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5748932957649231</v>
+        <v>0.8066406846046448</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.01915038004517555</v>
+        <v>0.02967569418251514</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.4767185151576996</v>
+        <v>0.6017022728919983</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.005069127772003412</v>
+        <v>0.0008392742602154613</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.1256726086139679</v>
+        <v>0.7921557426452637</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.4154650568962097</v>
+        <v>0.6083053350448608</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.5059130191802979</v>
+        <v>0.7223097085952759</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.617225170135498</v>
+        <v>0.8595353960990906</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.6355177760124207</v>
+        <v>0.7130938172340393</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9552392363548279</v>
+        <v>0.9887843132019043</v>
       </c>
     </row>
     <row r="53">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.4034418165683746</v>
+        <v>0.6230325698852539</v>
       </c>
     </row>
     <row r="54">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.1213506162166595</v>
+        <v>0.3592849969863892</v>
       </c>
     </row>
     <row r="55">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.2743425369262695</v>
+        <v>0.6371778845787048</v>
       </c>
     </row>
     <row r="56">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.8250387907028198</v>
+        <v>0.9533196687698364</v>
       </c>
     </row>
     <row r="57">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.4615468382835388</v>
+        <v>0.6930347084999084</v>
       </c>
     </row>
     <row r="58">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01719681173563004</v>
+        <v>0.009250778704881668</v>
       </c>
     </row>
     <row r="59">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.02190058864653111</v>
+        <v>0.009327057749032974</v>
       </c>
     </row>
     <row r="60">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.4079534709453583</v>
+        <v>0.5209988355636597</v>
       </c>
     </row>
     <row r="61">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.007413779385387897</v>
+        <v>0.003972475882619619</v>
       </c>
     </row>
     <row r="62">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.5322163701057434</v>
+        <v>0.9057421088218689</v>
       </c>
     </row>
     <row r="63">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.991943359375</v>
+        <v>0.9929426908493042</v>
       </c>
     </row>
     <row r="64">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.00825775507837534</v>
+        <v>0.001218759454786777</v>
       </c>
     </row>
     <row r="65">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.9379052519798279</v>
+        <v>0.9812107086181641</v>
       </c>
     </row>
     <row r="66">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1651167422533035</v>
+        <v>0.3853680491447449</v>
       </c>
     </row>
     <row r="67">
@@ -1433,11 +1433,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8742388486862183</v>
+        <v>0.9700888395309448</v>
       </c>
     </row>
     <row r="68">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.7139884233474731</v>
+        <v>0.9413900971412659</v>
       </c>
     </row>
     <row r="69">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.01729015819728374</v>
+        <v>0.009121198207139969</v>
       </c>
     </row>
     <row r="70">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.03093293681740761</v>
+        <v>0.05725786089897156</v>
       </c>
     </row>
     <row r="71">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.01027177553623915</v>
+        <v>0.000921442813705653</v>
       </c>
     </row>
     <row r="72">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.3964579403400421</v>
+        <v>0.8028891086578369</v>
       </c>
     </row>
     <row r="73">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.01133083738386631</v>
+        <v>0.01086515467613935</v>
       </c>
     </row>
     <row r="74">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.0214721467345953</v>
+        <v>0.01838024333119392</v>
       </c>
     </row>
     <row r="75">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.99900221824646</v>
+        <v>0.9999819397926331</v>
       </c>
     </row>
     <row r="76">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.3040566146373749</v>
+        <v>0.683058500289917</v>
       </c>
     </row>
     <row r="77">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.2705294191837311</v>
+        <v>0.1031096279621124</v>
       </c>
     </row>
     <row r="78">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.009025905281305313</v>
+        <v>0.01551829092204571</v>
       </c>
     </row>
     <row r="79">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.5990341901779175</v>
+        <v>0.9476627707481384</v>
       </c>
     </row>
     <row r="80">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.01689329743385315</v>
+        <v>0.02155759185552597</v>
       </c>
     </row>
     <row r="81">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.4257874190807343</v>
+        <v>0.5213016867637634</v>
       </c>
     </row>
     <row r="82">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.007946447469294071</v>
+        <v>0.001348314341157675</v>
       </c>
     </row>
     <row r="83">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.5067355632781982</v>
+        <v>0.9246139526367188</v>
       </c>
     </row>
     <row r="84">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.01310999412089586</v>
+        <v>0.001581869903020561</v>
       </c>
     </row>
     <row r="85">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.6763439774513245</v>
+        <v>0.8428048491477966</v>
       </c>
     </row>
     <row r="86">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.01567310839891434</v>
+        <v>0.05159453675150871</v>
       </c>
     </row>
     <row r="87">
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.01048219297081232</v>
+        <v>0.001593366148881614</v>
       </c>
     </row>
     <row r="88">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>No_identificado</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.04834067076444626</v>
+        <v>0.1523243337869644</v>
       </c>
     </row>
     <row r="89">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.3574714064598083</v>
+        <v>0.3289446234703064</v>
       </c>
     </row>
     <row r="90">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.6029798984527588</v>
+        <v>0.6682236790657043</v>
       </c>
     </row>
     <row r="91">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.00705872755497694</v>
+        <v>0.005046876613050699</v>
       </c>
     </row>
     <row r="92">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.0155679127201438</v>
+        <v>0.003503473242744803</v>
       </c>
     </row>
     <row r="93">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.5385931730270386</v>
+        <v>0.7314375638961792</v>
       </c>
     </row>
     <row r="94">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.5231066942214966</v>
+        <v>0.6418156623840332</v>
       </c>
     </row>
     <row r="95">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.8567475080490112</v>
+        <v>0.9077538251876831</v>
       </c>
     </row>
     <row r="96">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.8064305782318115</v>
+        <v>0.8628690838813782</v>
       </c>
     </row>
     <row r="97">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.8967217803001404</v>
+        <v>0.90533047914505</v>
       </c>
     </row>
     <row r="98">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.2085517197847366</v>
+        <v>0.4809593260288239</v>
       </c>
     </row>
     <row r="99">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.4311651587486267</v>
+        <v>0.6681380867958069</v>
       </c>
     </row>
     <row r="100">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.2753534615039825</v>
+        <v>0.7730901837348938</v>
       </c>
     </row>
     <row r="101">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.2260913848876953</v>
+        <v>0.3681632578372955</v>
       </c>
     </row>
     <row r="102">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.01078558620065451</v>
+        <v>0.006015530321747065</v>
       </c>
     </row>
     <row r="103">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.005270954687148333</v>
+        <v>0.0003798635152634233</v>
       </c>
     </row>
     <row r="104">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.01716124452650547</v>
+        <v>0.04692922160029411</v>
       </c>
     </row>
     <row r="105">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.4199918806552887</v>
+        <v>0.6188125014305115</v>
       </c>
     </row>
     <row r="106">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.2951926589012146</v>
+        <v>0.3507120013237</v>
       </c>
     </row>
     <row r="107">
@@ -2033,11 +2033,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.8886064291000366</v>
+        <v>0.9912567734718323</v>
       </c>
     </row>
     <row r="108">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.4722722172737122</v>
+        <v>0.7237212061882019</v>
       </c>
     </row>
     <row r="109">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.008485494181513786</v>
+        <v>0.002341982442885637</v>
       </c>
     </row>
     <row r="110">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.02003674395382404</v>
+        <v>0.02313283458352089</v>
       </c>
     </row>
     <row r="111">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.9890559911727905</v>
+        <v>0.9876248240470886</v>
       </c>
     </row>
     <row r="112">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.8783374428749084</v>
+        <v>0.9814826250076294</v>
       </c>
     </row>
     <row r="113">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.008954022079706192</v>
+        <v>0.00256803841330111</v>
       </c>
     </row>
     <row r="114">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.2281186878681183</v>
+        <v>0.606570303440094</v>
       </c>
     </row>
     <row r="115">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.3561284244060516</v>
+        <v>0.5701747536659241</v>
       </c>
     </row>
     <row r="116">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.0181071050465107</v>
+        <v>0.02596002258360386</v>
       </c>
     </row>
     <row r="117">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.008926281705498695</v>
+        <v>0.003130619646981359</v>
       </c>
     </row>
     <row r="118">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.3411116003990173</v>
+        <v>0.703784167766571</v>
       </c>
     </row>
     <row r="119">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.01466481201350689</v>
+        <v>0.002616017824038863</v>
       </c>
     </row>
     <row r="120">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.4851111471652985</v>
+        <v>0.844926118850708</v>
       </c>
     </row>
     <row r="121">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.01692751049995422</v>
+        <v>0.05003159120678902</v>
       </c>
     </row>
     <row r="122">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.7982169985771179</v>
+        <v>0.9368479251861572</v>
       </c>
     </row>
     <row r="123">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.2150234878063202</v>
+        <v>0.5429223775863647</v>
       </c>
     </row>
     <row r="124">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.5990883708000183</v>
+        <v>0.8762699961662292</v>
       </c>
     </row>
     <row r="125">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.6517661213874817</v>
+        <v>0.6587523221969604</v>
       </c>
     </row>
     <row r="126">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.9895150065422058</v>
+        <v>0.9976618885993958</v>
       </c>
     </row>
     <row r="127">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.5602790713310242</v>
+        <v>0.9356051087379456</v>
       </c>
     </row>
     <row r="128">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.7498442530632019</v>
+        <v>0.9410681128501892</v>
       </c>
     </row>
     <row r="129">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.009560085833072662</v>
+        <v>0.004404316656291485</v>
       </c>
     </row>
     <row r="130">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.8078744411468506</v>
+        <v>0.9260993599891663</v>
       </c>
     </row>
     <row r="131">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.2645265460014343</v>
+        <v>0.640853226184845</v>
       </c>
     </row>
     <row r="132">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.633022665977478</v>
+        <v>0.7855937480926514</v>
       </c>
     </row>
     <row r="133">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.7893705368041992</v>
+        <v>0.9281891584396362</v>
       </c>
     </row>
     <row r="134">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.370937705039978</v>
+        <v>0.8475418090820312</v>
       </c>
     </row>
     <row r="135">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.009012339636683464</v>
+        <v>0.009552055969834328</v>
       </c>
     </row>
     <row r="136">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.4207399189472198</v>
+        <v>0.5368068814277649</v>
       </c>
     </row>
     <row r="137">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.02270863205194473</v>
+        <v>0.01635445095598698</v>
       </c>
     </row>
     <row r="138">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.514446496963501</v>
+        <v>0.7823546528816223</v>
       </c>
     </row>
     <row r="139">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.0173418540507555</v>
+        <v>0.01288954820483923</v>
       </c>
     </row>
     <row r="140">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.9848814606666565</v>
+        <v>0.9998940825462341</v>
       </c>
     </row>
     <row r="141">
@@ -2543,11 +2543,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>No_identificado</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.03292950242757797</v>
+        <v>0.09897350519895554</v>
       </c>
     </row>
     <row r="142">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.008291964419186115</v>
+        <v>0.002142335055395961</v>
       </c>
     </row>
     <row r="143">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.1285920590162277</v>
+        <v>0.7180589437484741</v>
       </c>
     </row>
     <row r="144">
@@ -2588,11 +2588,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.6748401522636414</v>
+        <v>0.9614214301109314</v>
       </c>
     </row>
     <row r="145">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.6205877065658569</v>
+        <v>0.6751407980918884</v>
       </c>
     </row>
     <row r="146">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.9704006314277649</v>
+        <v>0.995352566242218</v>
       </c>
     </row>
     <row r="147">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.2126644402742386</v>
+        <v>0.6465059518814087</v>
       </c>
     </row>
     <row r="148">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.01499652210623026</v>
+        <v>0.00654190219938755</v>
       </c>
     </row>
     <row r="149">
@@ -2663,11 +2663,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.7945551872253418</v>
+        <v>0.9913771152496338</v>
       </c>
     </row>
     <row r="150">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.0077365986071527</v>
+        <v>0.008235943503677845</v>
       </c>
     </row>
     <row r="151">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.0134431179612875</v>
+        <v>0.00613408163189888</v>
       </c>
     </row>
     <row r="152">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.9799402356147766</v>
+        <v>0.9693968892097473</v>
       </c>
     </row>
     <row r="153">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.01272340212017298</v>
+        <v>0.002550392644479871</v>
       </c>
     </row>
     <row r="154">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.3598374128341675</v>
+        <v>0.5018283128738403</v>
       </c>
     </row>
     <row r="155">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.05313783884048462</v>
+        <v>0.05601048469543457</v>
       </c>
     </row>
     <row r="156">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.2664111256599426</v>
+        <v>0.5061750411987305</v>
       </c>
     </row>
     <row r="157">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.003276547882705927</v>
+        <v>0.0004093186871614307</v>
       </c>
     </row>
     <row r="158">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.3249312341213226</v>
+        <v>0.5208823084831238</v>
       </c>
     </row>
     <row r="159">
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.6775509715080261</v>
+        <v>0.7389304041862488</v>
       </c>
     </row>
     <row r="160">
@@ -2828,11 +2828,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.8612284660339355</v>
+        <v>0.9757669568061829</v>
       </c>
     </row>
     <row r="161">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.184401661157608</v>
+        <v>0.6139480471611023</v>
       </c>
     </row>
     <row r="162">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.005037707276642323</v>
+        <v>0.002987523097544909</v>
       </c>
     </row>
     <row r="163">
@@ -2873,11 +2873,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.7914924025535583</v>
+        <v>0.9796918034553528</v>
       </c>
     </row>
     <row r="164">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.9190221428871155</v>
+        <v>0.9256769418716431</v>
       </c>
     </row>
     <row r="165">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.02784834429621696</v>
+        <v>0.03212056681513786</v>
       </c>
     </row>
     <row r="166">
@@ -2918,11 +2918,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.7202324867248535</v>
+        <v>0.964159369468689</v>
       </c>
     </row>
     <row r="167">
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.9194676876068115</v>
+        <v>0.9380494356155396</v>
       </c>
     </row>
     <row r="168">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.245530977845192</v>
+        <v>0.5071792602539062</v>
       </c>
     </row>
     <row r="169">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.01558782532811165</v>
+        <v>0.00190102681517601</v>
       </c>
     </row>
     <row r="170">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.004999702796339989</v>
+        <v>0.0009574771975167096</v>
       </c>
     </row>
     <row r="171">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.6557213664054871</v>
+        <v>0.6800423860549927</v>
       </c>
     </row>
     <row r="172">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.6613447070121765</v>
+        <v>0.8991705179214478</v>
       </c>
     </row>
     <row r="173">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.3538051247596741</v>
+        <v>0.771669864654541</v>
       </c>
     </row>
     <row r="174">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.2128802537918091</v>
+        <v>0.6552510857582092</v>
       </c>
     </row>
     <row r="175">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.007891647517681122</v>
+        <v>0.004542530979961157</v>
       </c>
     </row>
     <row r="176">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.6845337748527527</v>
+        <v>0.8890352845191956</v>
       </c>
     </row>
     <row r="177">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.603890597820282</v>
+        <v>0.7837514281272888</v>
       </c>
     </row>
     <row r="178">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.5770290493965149</v>
+        <v>0.8514784574508667</v>
       </c>
     </row>
     <row r="179">
@@ -3113,11 +3113,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>No_identificado</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.01976490207016468</v>
+        <v>0.1440432220697403</v>
       </c>
     </row>
     <row r="180">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.3405033648014069</v>
+        <v>0.6142531037330627</v>
       </c>
     </row>
     <row r="181">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.3777854144573212</v>
+        <v>0.7910570502281189</v>
       </c>
     </row>
     <row r="182">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.6154093146324158</v>
+        <v>0.9157397150993347</v>
       </c>
     </row>
     <row r="183">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.0128366481512785</v>
+        <v>0.004056503064930439</v>
       </c>
     </row>
     <row r="184">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.4120719730854034</v>
+        <v>0.9000343680381775</v>
       </c>
     </row>
     <row r="185">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.7464601993560791</v>
+        <v>0.9222344756126404</v>
       </c>
     </row>
     <row r="186">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.008245931938290596</v>
+        <v>0.02220990508794785</v>
       </c>
     </row>
     <row r="187">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.6078431606292725</v>
+        <v>0.8509440422058105</v>
       </c>
     </row>
     <row r="188">
@@ -3248,11 +3248,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.8622406721115112</v>
+        <v>0.9843118786811829</v>
       </c>
     </row>
     <row r="189">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.8624610304832458</v>
+        <v>0.9363200664520264</v>
       </c>
     </row>
     <row r="190">
@@ -3278,11 +3278,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>No_identificado</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.04694123938679695</v>
+        <v>0.2101202458143234</v>
       </c>
     </row>
     <row r="191">
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.9764739871025085</v>
+        <v>0.9984079599380493</v>
       </c>
     </row>
     <row r="192">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.2064129412174225</v>
+        <v>0.4682218730449677</v>
       </c>
     </row>
     <row r="193">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.02684443444013596</v>
+        <v>0.04691445827484131</v>
       </c>
     </row>
     <row r="194">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.5719392895698547</v>
+        <v>0.8133044838905334</v>
       </c>
     </row>
     <row r="195">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.6039209365844727</v>
+        <v>0.7839075922966003</v>
       </c>
     </row>
     <row r="196">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.003585562808439136</v>
+        <v>9.608033724362031e-05</v>
       </c>
     </row>
     <row r="197">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.005841555539518595</v>
+        <v>0.001379584427922964</v>
       </c>
     </row>
     <row r="198">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.004785489290952682</v>
+        <v>0.0009338746313005686</v>
       </c>
     </row>
     <row r="199">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.3594301044940948</v>
+        <v>0.5110231637954712</v>
       </c>
     </row>
     <row r="200">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>No_identificado</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.02896567992866039</v>
+        <v>0.1211476251482964</v>
       </c>
     </row>
     <row r="201">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.01431477628648281</v>
+        <v>0.01432594284415245</v>
       </c>
     </row>
     <row r="202">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.2866294384002686</v>
+        <v>0.5175367593765259</v>
       </c>
     </row>
     <row r="203">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.3471382260322571</v>
+        <v>0.2988911271095276</v>
       </c>
     </row>
     <row r="204">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.8393796682357788</v>
+        <v>0.9398608803749084</v>
       </c>
     </row>
     <row r="205">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.4053171277046204</v>
+        <v>0.7786962985992432</v>
       </c>
     </row>
     <row r="206">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.05773043632507324</v>
+        <v>0.07510501891374588</v>
       </c>
     </row>
     <row r="207">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.007945218123495579</v>
+        <v>0.006895756348967552</v>
       </c>
     </row>
     <row r="208">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.4140924215316772</v>
+        <v>0.6747764348983765</v>
       </c>
     </row>
     <row r="209">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.00837666355073452</v>
+        <v>0.003343099029734731</v>
       </c>
     </row>
     <row r="210">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.4969740509986877</v>
+        <v>0.788398802280426</v>
       </c>
     </row>
     <row r="211">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.01174244564026594</v>
+        <v>0.009671294130384922</v>
       </c>
     </row>
     <row r="212">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.004437793977558613</v>
+        <v>0.0002956987300422043</v>
       </c>
     </row>
     <row r="213">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.3347837030887604</v>
+        <v>0.8614301681518555</v>
       </c>
     </row>
     <row r="214">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.8172263503074646</v>
+        <v>0.9142908453941345</v>
       </c>
     </row>
     <row r="215">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.4867499768733978</v>
+        <v>0.7739095687866211</v>
       </c>
     </row>
     <row r="216">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.708305299282074</v>
+        <v>0.9422181844711304</v>
       </c>
     </row>
     <row r="217">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.1086429879069328</v>
+        <v>0.3181375563144684</v>
       </c>
     </row>
     <row r="218">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.29347163438797</v>
+        <v>0.5256537795066833</v>
       </c>
     </row>
     <row r="219">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.01475740037858486</v>
+        <v>0.01064557582139969</v>
       </c>
     </row>
     <row r="220">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.6128808259963989</v>
+        <v>0.8171557784080505</v>
       </c>
     </row>
     <row r="221">
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.1821197271347046</v>
+        <v>0.3972507417201996</v>
       </c>
     </row>
     <row r="222">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.01072381250560284</v>
+        <v>0.006886833347380161</v>
       </c>
     </row>
     <row r="223">
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.7859169840812683</v>
+        <v>0.9386549592018127</v>
       </c>
     </row>
     <row r="224">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.4375014007091522</v>
+        <v>0.6073356866836548</v>
       </c>
     </row>
     <row r="225">
@@ -3803,11 +3803,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.9126213788986206</v>
+        <v>0.9906479120254517</v>
       </c>
     </row>
     <row r="226">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.008049624040722847</v>
+        <v>0.001881224801763892</v>
       </c>
     </row>
     <row r="227">
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.8984795808792114</v>
+        <v>0.9430339932441711</v>
       </c>
     </row>
     <row r="228">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.4055986702442169</v>
+        <v>0.6512067914009094</v>
       </c>
     </row>
     <row r="229">
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.7078037858009338</v>
+        <v>0.8656179904937744</v>
       </c>
     </row>
     <row r="230">
@@ -3878,11 +3878,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.9280655384063721</v>
+        <v>0.9881101846694946</v>
       </c>
     </row>
     <row r="231">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.02044498920440674</v>
+        <v>0.0381484143435955</v>
       </c>
     </row>
     <row r="232">
@@ -3908,11 +3908,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>No_identificado</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.06109895557165146</v>
+        <v>0.0802229717373848</v>
       </c>
     </row>
     <row r="233">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.9520848393440247</v>
+        <v>0.9892452359199524</v>
       </c>
     </row>
     <row r="234">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.7713360190391541</v>
+        <v>0.9192457795143127</v>
       </c>
     </row>
     <row r="235">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.2363458871841431</v>
+        <v>0.1015272289514542</v>
       </c>
     </row>
     <row r="236">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.2745833396911621</v>
+        <v>0.4682434499263763</v>
       </c>
     </row>
     <row r="237">
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.5278584361076355</v>
+        <v>0.888507068157196</v>
       </c>
     </row>
     <row r="238">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.01853411085903645</v>
+        <v>0.0127727622166276</v>
       </c>
     </row>
     <row r="239">
@@ -4013,11 +4013,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.4511774480342865</v>
+        <v>0.9888444542884827</v>
       </c>
     </row>
     <row r="240">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.5387638807296753</v>
+        <v>0.8730164766311646</v>
       </c>
     </row>
     <row r="241">
@@ -4043,11 +4043,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.7713443040847778</v>
+        <v>0.9505239725112915</v>
       </c>
     </row>
     <row r="242">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.03015574626624584</v>
+        <v>0.05083619803190231</v>
       </c>
     </row>
     <row r="243">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.9596666097640991</v>
+        <v>0.9905647039413452</v>
       </c>
     </row>
     <row r="244">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.006015569902956486</v>
+        <v>0.0002245111827505752</v>
       </c>
     </row>
     <row r="245">
@@ -4103,11 +4103,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.8940889239311218</v>
+        <v>0.9655983448028564</v>
       </c>
     </row>
     <row r="246">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.2651467025279999</v>
+        <v>0.5140312910079956</v>
       </c>
     </row>
     <row r="247">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.314049243927002</v>
+        <v>0.387980192899704</v>
       </c>
     </row>
     <row r="248">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.01415727753192186</v>
+        <v>0.01599101722240448</v>
       </c>
     </row>
     <row r="249">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.6338182091712952</v>
+        <v>0.8820623159408569</v>
       </c>
     </row>
     <row r="250">
@@ -4178,11 +4178,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.8883521556854248</v>
+        <v>0.9827008247375488</v>
       </c>
     </row>
     <row r="251">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.6688588261604309</v>
+        <v>0.9450628161430359</v>
       </c>
     </row>
     <row r="252">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.9769717454910278</v>
+        <v>0.9970853328704834</v>
       </c>
     </row>
     <row r="253">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.5613049268722534</v>
+        <v>0.8109287023544312</v>
       </c>
     </row>
     <row r="254">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.02453822828829288</v>
+        <v>0.02868113666772842</v>
       </c>
     </row>
     <row r="255">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.462528795003891</v>
+        <v>0.5664349794387817</v>
       </c>
     </row>
     <row r="256">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.9301931858062744</v>
+        <v>0.9026037454605103</v>
       </c>
     </row>
     <row r="257">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.3693808913230896</v>
+        <v>0.6643839478492737</v>
       </c>
     </row>
     <row r="258">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.0197121873497963</v>
+        <v>0.01404222752898932</v>
       </c>
     </row>
     <row r="259">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.7299662232398987</v>
+        <v>0.9141321182250977</v>
       </c>
     </row>
     <row r="260">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.04593047499656677</v>
+        <v>0.06356494873762131</v>
       </c>
     </row>
     <row r="261">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.3975138664245605</v>
+        <v>0.743116021156311</v>
       </c>
     </row>
     <row r="262">
@@ -4358,11 +4358,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.5778334736824036</v>
+        <v>0.988810122013092</v>
       </c>
     </row>
     <row r="263">
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.01530948840081692</v>
+        <v>0.02138505503535271</v>
       </c>
     </row>
     <row r="264">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.004609300754964352</v>
+        <v>0.000112078087113332</v>
       </c>
     </row>
     <row r="265">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.633533775806427</v>
+        <v>0.9212964773178101</v>
       </c>
     </row>
     <row r="266">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.7474726438522339</v>
+        <v>0.8643284440040588</v>
       </c>
     </row>
     <row r="267">
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.8463332056999207</v>
+        <v>0.9086562991142273</v>
       </c>
     </row>
     <row r="268">
@@ -4448,11 +4448,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.9072486758232117</v>
+        <v>0.9701729416847229</v>
       </c>
     </row>
     <row r="269">
@@ -4463,11 +4463,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.3986747562885284</v>
+        <v>0.9949994087219238</v>
       </c>
     </row>
     <row r="270">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.4231228232383728</v>
+        <v>0.4720928370952606</v>
       </c>
     </row>
     <row r="271">
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.5466108918190002</v>
+        <v>0.9237913489341736</v>
       </c>
     </row>
     <row r="272">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.7400599122047424</v>
+        <v>0.9040296673774719</v>
       </c>
     </row>
     <row r="273">
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.6005859375</v>
+        <v>0.7631737589836121</v>
       </c>
     </row>
     <row r="274">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.9569624662399292</v>
+        <v>0.9961762428283691</v>
       </c>
     </row>
     <row r="275">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.6462516784667969</v>
+        <v>0.8874767422676086</v>
       </c>
     </row>
     <row r="276">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.5700317621231079</v>
+        <v>0.8108940720558167</v>
       </c>
     </row>
     <row r="277">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.01252328231930733</v>
+        <v>0.01319027040153742</v>
       </c>
     </row>
     <row r="278">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.2997698485851288</v>
+        <v>0.5066362023353577</v>
       </c>
     </row>
     <row r="279">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.007789673749357462</v>
+        <v>0.01393594685941935</v>
       </c>
     </row>
     <row r="280">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.00780410785228014</v>
+        <v>0.006983857601881027</v>
       </c>
     </row>
     <row r="281">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.5139022469520569</v>
+        <v>0.5547281503677368</v>
       </c>
     </row>
     <row r="282">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.006790685001760721</v>
+        <v>0.01216979045420885</v>
       </c>
     </row>
     <row r="283">
@@ -4673,11 +4673,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.9265409708023071</v>
+        <v>0.9712464809417725</v>
       </c>
     </row>
     <row r="284">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.1505781263113022</v>
+        <v>0.6557360887527466</v>
       </c>
     </row>
     <row r="285">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.9993528127670288</v>
+        <v>0.9999393820762634</v>
       </c>
     </row>
     <row r="286">
@@ -4718,11 +4718,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.91437166929245</v>
+        <v>0.9767205119132996</v>
       </c>
     </row>
     <row r="287">
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.01139754150062799</v>
+        <v>0.003688572905957699</v>
       </c>
     </row>
     <row r="288">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.007814718410372734</v>
+        <v>0.002340531907975674</v>
       </c>
     </row>
     <row r="289">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.5582773089408875</v>
+        <v>0.6957372426986694</v>
       </c>
     </row>
     <row r="290">
@@ -4778,11 +4778,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.8621622323989868</v>
+        <v>0.9874510765075684</v>
       </c>
     </row>
     <row r="291">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.3014054596424103</v>
+        <v>0.5557101964950562</v>
       </c>
     </row>
     <row r="292">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.009476782754063606</v>
+        <v>0.02179928682744503</v>
       </c>
     </row>
     <row r="293">
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.2884993851184845</v>
+        <v>0.5127854347229004</v>
       </c>
     </row>
     <row r="294">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.01613139174878597</v>
+        <v>0.01877526938915253</v>
       </c>
     </row>
     <row r="295">
@@ -4853,11 +4853,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.8930106163024902</v>
+        <v>0.9948159456253052</v>
       </c>
     </row>
     <row r="296">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.4907964169979095</v>
+        <v>0.4401622712612152</v>
       </c>
     </row>
     <row r="297">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.2234909683465958</v>
+        <v>0.813399612903595</v>
       </c>
     </row>
     <row r="298">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.01338602509349585</v>
+        <v>0.01115377806127071</v>
       </c>
     </row>
     <row r="299">
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.1879793107509613</v>
+        <v>0.7046676278114319</v>
       </c>
     </row>
     <row r="300">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.006378969643265009</v>
+        <v>0.001068467507138848</v>
       </c>
     </row>
     <row r="301">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.2592473924160004</v>
+        <v>0.453978031873703</v>
       </c>
     </row>
     <row r="302">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.5419974327087402</v>
+        <v>0.7541451454162598</v>
       </c>
     </row>
     <row r="303">
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.007754859048873186</v>
+        <v>0.0008885246934369206</v>
       </c>
     </row>
     <row r="304">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.5465701222419739</v>
+        <v>0.9320683479309082</v>
       </c>
     </row>
     <row r="305">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.008528205566108227</v>
+        <v>0.006139894016087055</v>
       </c>
     </row>
     <row r="306">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.008635856211185455</v>
+        <v>0.002339306753128767</v>
       </c>
     </row>
     <row r="307">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.005081499926745892</v>
+        <v>0.002308075083419681</v>
       </c>
     </row>
     <row r="308">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.2027780413627625</v>
+        <v>0.7969059348106384</v>
       </c>
     </row>
     <row r="309">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.01245455909520388</v>
+        <v>0.007576466538012028</v>
       </c>
     </row>
     <row r="310">
@@ -5078,11 +5078,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>No_identificado</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.02010386809706688</v>
+        <v>0.190103605389595</v>
       </c>
     </row>
     <row r="311">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.3779893517494202</v>
+        <v>0.2880090773105621</v>
       </c>
     </row>
     <row r="312">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.9584250450134277</v>
+        <v>0.9838147759437561</v>
       </c>
     </row>
     <row r="313">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.5473377108573914</v>
+        <v>0.8039255142211914</v>
       </c>
     </row>
     <row r="314">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.5767403244972229</v>
+        <v>0.801737904548645</v>
       </c>
     </row>
     <row r="315">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.4434020817279816</v>
+        <v>0.6957185864448547</v>
       </c>
     </row>
     <row r="316">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.2518250644207001</v>
+        <v>0.5152116417884827</v>
       </c>
     </row>
     <row r="317">
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.9775705933570862</v>
+        <v>0.9968101382255554</v>
       </c>
     </row>
     <row r="318">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.006062720436602831</v>
+        <v>0.001026990241371095</v>
       </c>
     </row>
     <row r="319">
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.7980965971946716</v>
+        <v>0.9314690828323364</v>
       </c>
     </row>
     <row r="320">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.3210934698581696</v>
+        <v>0.6364588141441345</v>
       </c>
     </row>
     <row r="321">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.451771080493927</v>
+        <v>0.6107551455497742</v>
       </c>
     </row>
     <row r="322">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.5298522710800171</v>
+        <v>0.8145356178283691</v>
       </c>
     </row>
     <row r="323">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.01383259892463684</v>
+        <v>0.008964216336607933</v>
       </c>
     </row>
     <row r="324">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.006605213973671198</v>
+        <v>0.001128462026827037</v>
       </c>
     </row>
     <row r="325">
@@ -5303,11 +5303,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.113005556166172</v>
+        <v>0.05433393642306328</v>
       </c>
     </row>
     <row r="326">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.1780711859464645</v>
+        <v>0.3387563228607178</v>
       </c>
     </row>
     <row r="327">
@@ -5333,11 +5333,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>No_identificado</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.06649354845285416</v>
+        <v>0.5855843424797058</v>
       </c>
     </row>
     <row r="328">
@@ -5348,11 +5348,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.8284765481948853</v>
+        <v>0.9791126847267151</v>
       </c>
     </row>
     <row r="329">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.3003779351711273</v>
+        <v>0.488465815782547</v>
       </c>
     </row>
     <row r="330">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.7552704811096191</v>
+        <v>0.9115432500839233</v>
       </c>
     </row>
     <row r="331">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.7761029601097107</v>
+        <v>0.9285497069358826</v>
       </c>
     </row>
     <row r="332">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.7975022196769714</v>
+        <v>0.8168067932128906</v>
       </c>
     </row>
     <row r="333">
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.5164105296134949</v>
+        <v>0.9024379253387451</v>
       </c>
     </row>
     <row r="334">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.01480175368487835</v>
+        <v>0.03244300931692123</v>
       </c>
     </row>
     <row r="335">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.006259480491280556</v>
+        <v>0.0005181924207136035</v>
       </c>
     </row>
     <row r="336">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.9809563159942627</v>
+        <v>0.9970099329948425</v>
       </c>
     </row>
     <row r="337">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.2985797822475433</v>
+        <v>0.5858870148658752</v>
       </c>
     </row>
     <row r="338">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.5581080317497253</v>
+        <v>0.7798997759819031</v>
       </c>
     </row>
     <row r="339">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.01242969278246164</v>
+        <v>0.02375411801040173</v>
       </c>
     </row>
     <row r="340">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.8674743175506592</v>
+        <v>0.9108789563179016</v>
       </c>
     </row>
     <row r="341">
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.570649266242981</v>
+        <v>0.8533732295036316</v>
       </c>
     </row>
     <row r="342">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.6194788813591003</v>
+        <v>0.8644205331802368</v>
       </c>
     </row>
     <row r="343">
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.008657056838274002</v>
+        <v>0.00708604883402586</v>
       </c>
     </row>
     <row r="344">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.4192894399166107</v>
+        <v>0.5448412895202637</v>
       </c>
     </row>
     <row r="345">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.8516188263893127</v>
+        <v>0.9452575445175171</v>
       </c>
     </row>
     <row r="346">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.1461157947778702</v>
+        <v>0.4389634430408478</v>
       </c>
     </row>
     <row r="347">
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.2588732242584229</v>
+        <v>0.4776875376701355</v>
       </c>
     </row>
     <row r="348">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.2071709930896759</v>
+        <v>0.5341271758079529</v>
       </c>
     </row>
     <row r="349">
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.01334095560014248</v>
+        <v>0.006748898886144161</v>
       </c>
     </row>
     <row r="350">
@@ -5678,11 +5678,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.9359024167060852</v>
+        <v>0.9804971218109131</v>
       </c>
     </row>
     <row r="351">
@@ -5693,11 +5693,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.7350651621818542</v>
+        <v>0.959841787815094</v>
       </c>
     </row>
     <row r="352">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.3857994377613068</v>
+        <v>0.8219626545906067</v>
       </c>
     </row>
     <row r="353">
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.01492024771869183</v>
+        <v>0.01254482008516788</v>
       </c>
     </row>
     <row r="354">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.358106791973114</v>
+        <v>0.866047203540802</v>
       </c>
     </row>
     <row r="355">
@@ -5753,11 +5753,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.8741310238838196</v>
+        <v>0.9652051329612732</v>
       </c>
     </row>
     <row r="356">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.598433256149292</v>
+        <v>0.8445850014686584</v>
       </c>
     </row>
     <row r="357">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.4315063953399658</v>
+        <v>0.7360668778419495</v>
       </c>
     </row>
     <row r="358">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.711460292339325</v>
+        <v>0.8916498422622681</v>
       </c>
     </row>
     <row r="359">
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.3096519112586975</v>
+        <v>0.6456450223922729</v>
       </c>
     </row>
     <row r="360">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.01052366010844707</v>
+        <v>0.01073450688272715</v>
       </c>
     </row>
     <row r="361">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.6897838115692139</v>
+        <v>0.9091047644615173</v>
       </c>
     </row>
     <row r="362">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.4894901812076569</v>
+        <v>0.6718416213989258</v>
       </c>
     </row>
     <row r="363">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.5733804702758789</v>
+        <v>0.7717165946960449</v>
       </c>
     </row>
     <row r="364">
@@ -5888,11 +5888,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.8330209255218506</v>
+        <v>0.9694473743438721</v>
       </c>
     </row>
     <row r="365">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.1266654133796692</v>
+        <v>0.1858153641223907</v>
       </c>
     </row>
     <row r="366">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.0295507051050663</v>
+        <v>0.05627480894327164</v>
       </c>
     </row>
     <row r="367">
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.01095713581889868</v>
+        <v>0.03119401261210442</v>
       </c>
     </row>
     <row r="368">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.2895144522190094</v>
+        <v>0.09784553945064545</v>
       </c>
     </row>
     <row r="369">
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.1693696230649948</v>
+        <v>0.3119186460971832</v>
       </c>
     </row>
     <row r="370">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.7582639455795288</v>
+        <v>0.937546968460083</v>
       </c>
     </row>
     <row r="371">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.4730570614337921</v>
+        <v>0.6351406574249268</v>
       </c>
     </row>
     <row r="372">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.008945233188569546</v>
+        <v>0.001849969965405762</v>
       </c>
     </row>
     <row r="373">
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.005066206678748131</v>
+        <v>0.0008431912865489721</v>
       </c>
     </row>
     <row r="374">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.006692082621157169</v>
+        <v>0.00503653334453702</v>
       </c>
     </row>
     <row r="375">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.5689054131507874</v>
+        <v>0.8107548356056213</v>
       </c>
     </row>
     <row r="376">
@@ -6068,11 +6068,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>No_identificado</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.02967953681945801</v>
+        <v>0.1656893044710159</v>
       </c>
     </row>
     <row r="377">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.7955197691917419</v>
+        <v>0.9458760023117065</v>
       </c>
     </row>
     <row r="378">
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.8287062048912048</v>
+        <v>0.9387121796607971</v>
       </c>
     </row>
     <row r="379">
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.0063050901517272</v>
+        <v>0.005772202741354704</v>
       </c>
     </row>
     <row r="380">
@@ -6128,11 +6128,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.869813859462738</v>
+        <v>0.9779477119445801</v>
       </c>
     </row>
     <row r="381">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.9372919201850891</v>
+        <v>0.8714548945426941</v>
       </c>
     </row>
     <row r="382">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.9627965092658997</v>
+        <v>0.9934751391410828</v>
       </c>
     </row>
     <row r="383">
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0.01502277515828609</v>
+        <v>0.004750530701130629</v>
       </c>
     </row>
     <row r="384">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.7537668943405151</v>
+        <v>0.8005525469779968</v>
       </c>
     </row>
     <row r="385">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.4609387814998627</v>
+        <v>0.5494919419288635</v>
       </c>
     </row>
     <row r="386">
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.04739838838577271</v>
+        <v>0.05255883187055588</v>
       </c>
     </row>
     <row r="387">
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.5807478427886963</v>
+        <v>0.8852260112762451</v>
       </c>
     </row>
     <row r="388">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.6129264235496521</v>
+        <v>0.9343588352203369</v>
       </c>
     </row>
     <row r="389">
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.007081684656441212</v>
+        <v>0.003297176444903016</v>
       </c>
     </row>
     <row r="390">
@@ -6278,11 +6278,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.8140370845794678</v>
+        <v>0.976540744304657</v>
       </c>
     </row>
     <row r="391">
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.007608994841575623</v>
+        <v>0.001374390092678368</v>
       </c>
     </row>
     <row r="392">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.6699756383895874</v>
+        <v>0.8773816823959351</v>
       </c>
     </row>
     <row r="393">
@@ -6323,11 +6323,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>No_identificado</t>
+          <t>Cáncer</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.9357544779777527</v>
+        <v>0.998772144317627</v>
       </c>
     </row>
     <row r="394">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.2804966568946838</v>
+        <v>0.4778735041618347</v>
       </c>
     </row>
     <row r="395">
@@ -6353,11 +6353,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>No_identificado</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.04285943508148193</v>
+        <v>0.100947879254818</v>
       </c>
     </row>
     <row r="396">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.2522067427635193</v>
+        <v>0.418851763010025</v>
       </c>
     </row>
     <row r="397">
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.2370233833789825</v>
+        <v>0.4828043878078461</v>
       </c>
     </row>
     <row r="398">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0.6838817000389099</v>
+        <v>0.9417790770530701</v>
       </c>
     </row>
     <row r="399">
@@ -6417,7 +6417,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.01279087271541357</v>
+        <v>0.003901402465999126</v>
       </c>
     </row>
     <row r="400">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0.2783306241035461</v>
+        <v>0.497918426990509</v>
       </c>
     </row>
     <row r="401">
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0.01248286105692387</v>
+        <v>0.003381763817742467</v>
       </c>
     </row>
   </sheetData>
